--- a/12/RelationsAndFunctions.xlsx
+++ b/12/RelationsAndFunctions.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\base\12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACBC92-4A15-4BC2-9DFB-A309DBB0196B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{29554E18-B50E-4D0E-A32C-7666D94E0038}"/>
+    <workbookView windowWidth="19890" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>1)</t>
   </si>
@@ -48,36 +37,45 @@
     <t xml:space="preserve">Real, Natural, integers </t>
   </si>
   <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>{a,b,c,d}</t>
+  </si>
+  <si>
     <t>2)</t>
   </si>
   <si>
     <t>Relation</t>
   </si>
   <si>
+    <t>aRb or (a,b)Belongs to R</t>
+  </si>
+  <si>
+    <t>This is how relation is represented</t>
+  </si>
+  <si>
     <t>Two objects or quantities are related if there  is a recognizable connection or link between the two</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>{a,b,c,d}</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
+    <t>A= set of class 12 students and each element of A is denoted by 'a'</t>
+  </si>
+  <si>
+    <t>B= set of class 11 students and each element of B is denoted by 'b'</t>
+  </si>
+  <si>
     <t>{(a,b)  A*B: a is brother of b}</t>
   </si>
   <si>
-    <t>A= set of class 12 students and each element of A is denoted by 'a'</t>
-  </si>
-  <si>
-    <t>B= set of class 11 students and each element of B is denoted by 'b'</t>
-  </si>
-  <si>
     <t>We define a relation R from  A to B as an arbitrary subest of A*B</t>
   </si>
   <si>
+    <t>In terms of sets, relation is defined as Subset of cateasean produst of elements of sets</t>
+  </si>
+  <si>
     <t>3)</t>
   </si>
   <si>
@@ -132,19 +130,43 @@
     <t>Reflexive</t>
   </si>
   <si>
+    <t>if(a,a) belongs to R for every (ALL) a in A</t>
+  </si>
+  <si>
     <t>Symetric</t>
   </si>
   <si>
+    <t>if(a1,a2) belongs to R implies that (a2,a1) belongs to R for all a1,a2 of set A</t>
+  </si>
+  <si>
     <t>Transitive</t>
   </si>
   <si>
-    <t>if(a,a) belongs to R for every a in A</t>
-  </si>
-  <si>
-    <t>if(a1,a2) belongs to R implies that (a2,a1) belongs to R for all a1,a2 of set A</t>
-  </si>
-  <si>
-    <t>if (a1,a2) belongs to R and (a2,a3) implies (a1,a3) belongs to R for all a1, a2 and a of set A</t>
+    <t>if (a1,a2) belongs to R and (a2,a3) implies (a1,a3) belongs to R for all a1, a2 and a3 of set A</t>
+  </si>
+  <si>
+    <t>Example  1 of Reflexiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set A= {1,2,3} </t>
+  </si>
+  <si>
+    <t>R= {(1,2),(2,3),(3,1), (2,1),(1,3),(1,1),(2,2), (3,3)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As (1,1), (2,2) and (3,3) all belong to R,  </t>
+  </si>
+  <si>
+    <t>So this is reflexive</t>
+  </si>
+  <si>
+    <t>Example of not Refelexive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 = {(1,2),(2,3),(3,1),(2,1) , (1,1)} </t>
+  </si>
+  <si>
+    <t>As (2,2) and (3,3) are not in R, it os not reflexive</t>
   </si>
   <si>
     <t>4)</t>
@@ -162,25 +184,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,24 +553,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -254,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -287,26 +939,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -339,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,26 +1115,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4740CE6-797E-4A3B-BA56-DD64BD6AC912}">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,198 +1137,252 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
       <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="4:6">
       <c r="D38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="F39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="42" spans="4:7">
+      <c r="D42" t="s">
         <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11">
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/12/RelationsAndFunctions.xlsx
+++ b/12/RelationsAndFunctions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7200"/>
+    <workbookView windowWidth="19635" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>1)</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Empty Relation</t>
   </si>
   <si>
-    <t xml:space="preserve">A relation R in a set A is called empty relation when no element 'a' of A is related to any other element 'b' of A </t>
+    <t xml:space="preserve">A relation R in a set A is called empty relation when no element 'a' of A is related to any other element 'a' of A </t>
   </si>
   <si>
     <t>3.2)</t>
@@ -118,7 +118,7 @@
     <t>Universal  Relation</t>
   </si>
   <si>
-    <t>A relation R in a set A is said to be universal when each element 'a' of A is related with every other element 'b' of A</t>
+    <t>A relation R in a set A is said to be universal when each element 'a' of A is related with every other element 'a' of A</t>
   </si>
   <si>
     <t>3.3)</t>
@@ -175,10 +175,25 @@
     <t>Types of Functions</t>
   </si>
   <si>
-    <t>one-one</t>
+    <t>one-one (injective)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If image of distinct elements of X under f are distinct ( example f1 , f4)</t>
   </si>
   <si>
     <t>many-one</t>
+  </si>
+  <si>
+    <t>f2, f3</t>
+  </si>
+  <si>
+    <t>Onto :(surjective)  If every element of Y is image of some element of X (not necessarily unique X)</t>
+  </si>
+  <si>
+    <t>f3 and f4 are onto</t>
+  </si>
+  <si>
+    <t>bijective functions:  (if function is both Onto and One-One)</t>
   </si>
 </sst>
 </file>
@@ -861,6 +876,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="10029190"/>
+          <a:ext cx="3959860" cy="2467610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1371,18 +1433,45 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:5">
       <c r="C55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="3:3">
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
       <c r="C56" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/12/RelationsAndFunctions.xlsx
+++ b/12/RelationsAndFunctions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
   <si>
     <t>1)</t>
   </si>
@@ -475,22 +475,50 @@
     <t>Composition of Functions</t>
   </si>
   <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>??</t>
+    <t>Check for One-to-One (injective)</t>
+  </si>
+  <si>
+    <t>Check for Onto (Surjective</t>
+  </si>
+  <si>
+    <t>condition of surjective is … for every output value, there should be one input value</t>
+  </si>
+  <si>
+    <t>Here N---&gt; N means domain is N and Range is N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part 2 </t>
+  </si>
+  <si>
+    <t>f: Z---&gt; Z given by f(x) = square(x)</t>
+  </si>
+  <si>
+    <t>Now our set is real number (Z) and not natural nuber (N)</t>
+  </si>
+  <si>
+    <t>Check for Onto for part 2</t>
+  </si>
+  <si>
+    <t>f inverse function ----&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,8 +549,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -585,15 +614,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>145395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>106432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,8 +640,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2219326" y="23507701"/>
-          <a:ext cx="4286250" cy="2135256"/>
+          <a:off x="2009775" y="23195895"/>
+          <a:ext cx="5657849" cy="2818537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,13 +695,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>133154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -706,13 +735,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>11106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -746,13 +775,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>441578</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -786,13 +815,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>125790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -826,13 +855,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>150910</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -866,13 +895,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>560416</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,6 +922,246 @@
         <a:xfrm>
           <a:off x="85725" y="45386625"/>
           <a:ext cx="4675216" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>14824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781051" y="31828324"/>
+          <a:ext cx="4457699" cy="1385350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88576</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4972050" y="30508575"/>
+          <a:ext cx="4117651" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>129972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7372351" y="32013526"/>
+          <a:ext cx="3657600" cy="1263446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>64938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1876425" y="34354938"/>
+          <a:ext cx="3419475" cy="1706711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>55477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7038976" y="34345477"/>
+          <a:ext cx="5200650" cy="1620923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>76923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1990726" y="53416923"/>
+          <a:ext cx="7867650" cy="2771052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W257"/>
+  <dimension ref="A1:W284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1883,22 +2152,110 @@
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="163" spans="3:17">
+      <c r="Q163" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="3:17">
+      <c r="C167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="168" spans="3:17">
+      <c r="M168" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="3:17">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="2:13">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="2:13">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="2:13">
+      <c r="B179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="2:13">
+      <c r="C180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="M180" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13">
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="2:13">
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="2:13">
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="2:13">
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="2:13">
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="2:13">
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="2:13">
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="2:13">
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="192" spans="2:13">
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>153</v>
-      </c>
-      <c r="B257" t="s">
-        <v>154</v>
+    <row r="284" spans="1:1">
+      <c r="A284" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/12/RelationsAndFunctions.xlsx
+++ b/12/RelationsAndFunctions.xlsx
@@ -1133,16 +1133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>76923</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>9967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>294</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,8 +1160,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1990726" y="53416923"/>
-          <a:ext cx="7867650" cy="2771052"/>
+          <a:off x="6991351" y="48396967"/>
+          <a:ext cx="5191124" cy="1828357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W284"/>
+  <dimension ref="A1:W254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="N267" sqref="N267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2253,8 +2253,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="2" t="s">
+    <row r="254" spans="13:13">
+      <c r="M254" s="2" t="s">
         <v>161</v>
       </c>
     </row>
